--- a/src/admin/Menu.xlsx
+++ b/src/admin/Menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Меню</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Алкогольные напитки2</t>
+  </si>
+  <si>
+    <t>Discount, %</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -485,10 +491,10 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="77.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -500,9 +506,14 @@
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -515,8 +526,9 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
@@ -531,8 +543,9 @@
       <c r="F3" s="3">
         <v>182.99</v>
       </c>
+      <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
@@ -547,8 +560,9 @@
       <c r="F4" s="3">
         <v>215.36</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
@@ -563,8 +577,9 @@
       <c r="F5" s="3">
         <v>265.57</v>
       </c>
+      <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>39</v>
@@ -577,8 +592,9 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
@@ -593,8 +609,9 @@
       <c r="F7" s="1">
         <v>166.47</v>
       </c>
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
@@ -609,8 +626,9 @@
       <c r="F8" s="1">
         <v>168.25</v>
       </c>
+      <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -625,8 +643,9 @@
       <c r="F9" s="1">
         <v>132.88</v>
       </c>
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -639,8 +658,9 @@
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>43</v>
@@ -653,8 +673,9 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
@@ -669,8 +690,9 @@
       <c r="F12" s="1">
         <v>2700.79</v>
       </c>
+      <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
@@ -685,8 +707,9 @@
       <c r="F13" s="1">
         <v>3100.33</v>
       </c>
+      <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
@@ -701,8 +724,9 @@
       <c r="F14" s="1">
         <v>1850.42</v>
       </c>
+      <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -715,8 +739,9 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -731,8 +756,9 @@
       <c r="F16" s="1">
         <v>420.78</v>
       </c>
+      <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
@@ -747,8 +773,9 @@
       <c r="F17" s="1">
         <v>440.11</v>
       </c>
+      <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -763,21 +790,22 @@
       <c r="F18" s="1">
         <v>520.08000000000004</v>
       </c>
+      <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
